--- a/sekwencje.xlsx
+++ b/sekwencje.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="32">
   <si>
     <t xml:space="preserve">l.p.</t>
   </si>
@@ -37,85 +37,82 @@
     <t xml:space="preserve">sekwencja</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Hel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekwencje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latarnie morskie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6_LFI_15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Jastarnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo_A_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kaszyca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">LFI_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gdansk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Sopot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Krynica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Shchuukinskiy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iso_4s</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sekwencje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latarnie morskie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6_LFI_15s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Jastarnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo_A_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Kaszyca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Hel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFI_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Gdansk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iso_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Sopot</t>
+    <t xml:space="preserve">#Obzornyy</t>
   </si>
   <si>
     <t xml:space="preserve">DIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Krynica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q_3_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Shchuukinskiy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_WRG_4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Obzornyy</t>
-  </si>
-  <si>
     <t xml:space="preserve">#Taran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">#Rozewie</t>
@@ -205,42 +202,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8:G8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,10 +287,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,17 +306,17 @@
       <c r="D4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,19 +330,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,19 +356,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,19 +382,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,19 +408,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,16 +434,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,16 +480,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,16 +503,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,16 +526,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,13 +549,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,10 +572,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,10 +606,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,10 +623,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,10 +657,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +674,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,10 +691,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,10 +742,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,10 +759,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,10 +810,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,10 +827,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,10 +844,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,10 +861,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,10 +895,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,10 +912,10 @@
         <v>33</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,10 +929,10 @@
         <v>34</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,10 +946,10 @@
         <v>35</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +963,10 @@
         <v>36</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,10 +980,10 @@
         <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,10 +997,10 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +1014,10 @@
         <v>39</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +1031,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1048,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,10 +1065,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,10 +1082,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,10 +1099,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,10 +1116,10 @@
         <v>45</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,10 +1133,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,10 +1150,10 @@
         <v>47</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,10 +1167,10 @@
         <v>48</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,10 +1184,10 @@
         <v>49</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +1201,10 @@
         <v>50</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,10 +1218,10 @@
         <v>51</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,10 +1235,10 @@
         <v>52</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,10 +1269,10 @@
         <v>54</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1286,10 @@
         <v>55</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,10 +1303,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1320,10 @@
         <v>57</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,10 +1337,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,10 +1354,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +1371,10 @@
         <v>60</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,10 +1388,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,10 +1405,10 @@
         <v>62</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,10 +1422,10 @@
         <v>63</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,10 +1439,10 @@
         <v>64</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,10 +1456,10 @@
         <v>65</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,10 +1473,10 @@
         <v>66</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,10 +1490,10 @@
         <v>67</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,10 +1507,10 @@
         <v>68</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1524,10 @@
         <v>69</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1541,10 @@
         <v>70</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,10 +1558,10 @@
         <v>71</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,10 +1575,10 @@
         <v>72</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,10 +1592,10 @@
         <v>73</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +1609,10 @@
         <v>74</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,10 +1626,10 @@
         <v>75</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,10 +1643,10 @@
         <v>76</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,10 +1660,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,10 +1677,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,10 +1694,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1711,10 @@
         <v>80</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,10 +1728,10 @@
         <v>81</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,10 +1745,10 @@
         <v>82</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1762,10 @@
         <v>83</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,10 +1779,10 @@
         <v>84</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1796,10 @@
         <v>85</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,10 +1813,10 @@
         <v>86</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,10 +1830,10 @@
         <v>87</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,10 +1847,10 @@
         <v>88</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,10 +1864,10 @@
         <v>89</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1881,10 @@
         <v>90</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,10 +1898,10 @@
         <v>91</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,10 +1915,10 @@
         <v>92</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,10 +1932,10 @@
         <v>93</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,10 +1949,10 @@
         <v>94</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,10 +1966,10 @@
         <v>95</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,10 +1983,10 @@
         <v>96</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,10 +2000,10 @@
         <v>97</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,10 +2017,10 @@
         <v>98</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,10 +2034,10 @@
         <v>99</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,10 +2051,10 @@
         <v>100</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2068,10 @@
         <v>101</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,10 +2085,10 @@
         <v>102</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,10 +2102,10 @@
         <v>103</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,10 +2119,10 @@
         <v>104</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,10 +2136,10 @@
         <v>105</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,10 +2153,10 @@
         <v>106</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,10 +2170,10 @@
         <v>107</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,10 +2187,10 @@
         <v>108</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,10 +2204,10 @@
         <v>109</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2221,10 @@
         <v>110</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,10 +2238,10 @@
         <v>111</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,10 +2255,10 @@
         <v>112</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,10 +2272,10 @@
         <v>113</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,10 +2289,10 @@
         <v>114</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,10 +2306,10 @@
         <v>115</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,10 +2323,10 @@
         <v>116</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,10 +2340,10 @@
         <v>117</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,10 +2357,10 @@
         <v>118</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2374,10 @@
         <v>119</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,10 +2391,10 @@
         <v>120</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,10 +2408,10 @@
         <v>121</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2425,10 @@
         <v>122</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,10 +2442,10 @@
         <v>123</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,10 +2459,10 @@
         <v>124</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,10 +2476,10 @@
         <v>125</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,10 +2493,10 @@
         <v>126</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,10 +2510,10 @@
         <v>127</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2527,10 @@
         <v>128</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2544,10 @@
         <v>129</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2561,10 @@
         <v>130</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,10 +2578,10 @@
         <v>131</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2587,8 +2589,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/sekwencje.xlsx
+++ b/sekwencje.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
   <si>
     <t xml:space="preserve">l.p.</t>
   </si>
@@ -43,79 +43,315 @@
     <t xml:space="preserve">#Hel</t>
   </si>
   <si>
-    <t xml:space="preserve">Sekwencje</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kolory</t>
   </si>
   <si>
     <t xml:space="preserve">Latarnie morskie</t>
   </si>
   <si>
-    <t xml:space="preserve">Q6_LFI_15s</t>
-  </si>
-  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">#Jastarnia</t>
   </si>
   <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kaszyca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Gdansk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Sopot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Krynica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Shchukinskiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_9_16s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Obzornyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Taran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Rozewie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEKWENCJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEKWENCJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_6_LFI_15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,700,300,700,300,700,300,700,300,700,300,700,2000,7000,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[300,700,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,7700,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupa szybkich 9 sygnałów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_9_15s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[300,700,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,6700,0]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_3_10s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[300,700,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300,700,300,7700,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3_9s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,1000,300,1000,300,6100,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[900,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_2,5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_4s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[800,3200,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_2_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[400,600,400,3600,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo_A_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,600,1000,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mo_A_10s</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Kaszyca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">[500,500,1500,7500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_10s</t>
   </si>
   <si>
     <t xml:space="preserve">LFI_10s</t>
   </si>
   <si>
-    <t xml:space="preserve">#Gdansk</t>
+    <t xml:space="preserve">[3000,7000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFI_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,1000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2500,2500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
   </si>
   <si>
     <t xml:space="preserve">Iso_10s</t>
   </si>
   <si>
-    <t xml:space="preserve">#Sopot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Krynica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Shchuukinskiy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iso_4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Obzornyy</t>
+    <t xml:space="preserve">[5000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2500,1500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_5s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[3000,2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[6000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_12s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[7000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciągłe</t>
   </si>
   <si>
     <t xml:space="preserve">DIR</t>
   </si>
   <si>
-    <t xml:space="preserve">#Taran</t>
+    <t xml:space="preserve">Światło ciągłe kierunkowe</t>
   </si>
   <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">#Rozewie</t>
+    <t xml:space="preserve">Brak światła</t>
   </si>
 </sst>
 </file>
@@ -125,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,6 +390,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,12 +404,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -197,12 +445,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,10 +487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -238,8 +498,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="71.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,14 +570,11 @@
       <c r="E4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,14 +593,11 @@
       <c r="E5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,14 +616,11 @@
       <c r="E6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>14</v>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,11 +639,8 @@
       <c r="E7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>17</v>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>6</v>
@@ -413,14 +662,11 @@
       <c r="E8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,11 +685,8 @@
       <c r="E9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,11 +705,8 @@
       <c r="E10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="J10" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,11 +725,8 @@
       <c r="E11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,16 +740,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,16 +760,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,16 +780,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,10 +800,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,10 +834,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,11 +851,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -640,9 +873,18 @@
         <v>17</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -657,10 +899,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,8 +924,14 @@
       <c r="D21" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,7 +948,16 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,7 +974,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,10 +994,16 @@
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,10 +1034,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,10 +1051,16 @@
         <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,10 +1074,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +1097,16 @@
         <v>27</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,10 +1120,16 @@
         <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,10 +1143,16 @@
         <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,10 +1166,16 @@
         <v>30</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +1189,16 @@
         <v>31</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,10 +1212,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,10 +1229,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,10 +1252,16 @@
         <v>34</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,8 +1277,8 @@
       <c r="D37" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>26</v>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,8 +1294,14 @@
       <c r="D38" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>26</v>
+      <c r="E38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,8 +1317,14 @@
       <c r="D39" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>26</v>
+      <c r="E39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,10 +1338,10 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,10 +1355,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1378,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +1404,13 @@
         <v>5</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,10 +1424,16 @@
         <v>42</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,10 +1447,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,10 +1464,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1481,10 @@
         <v>45</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +1498,16 @@
         <v>46</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1521,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,10 +1544,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +1567,16 @@
         <v>49</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,10 +1590,10 @@
         <v>50</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1644,16 @@
         <v>5</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,10 +1667,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,10 +1693,19 @@
         <v>55</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,10 +1719,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,10 +1736,10 @@
         <v>57</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,10 +1753,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,10 +1770,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,10 +1787,10 @@
         <v>60</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,10 +1804,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,10 +1821,10 @@
         <v>62</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,10 +1838,10 @@
         <v>63</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1855,10 @@
         <v>64</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,10 +1872,10 @@
         <v>65</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,10 +1889,10 @@
         <v>66</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,8 +1925,8 @@
       <c r="D70" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>26</v>
+      <c r="E70" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,8 +1942,8 @@
       <c r="D71" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>26</v>
+      <c r="E71" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,10 +1957,10 @@
         <v>70</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,10 +1974,10 @@
         <v>71</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,10 +1991,10 @@
         <v>72</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,10 +2025,10 @@
         <v>74</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,10 +2042,10 @@
         <v>75</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,10 +2059,10 @@
         <v>76</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +2076,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,10 +2093,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,10 +2110,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,10 +2127,10 @@
         <v>80</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,10 +2144,10 @@
         <v>81</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,10 +2161,10 @@
         <v>82</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,10 +2178,10 @@
         <v>83</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,10 +2195,10 @@
         <v>84</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,10 +2212,10 @@
         <v>85</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,10 +2229,10 @@
         <v>86</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,10 +2246,10 @@
         <v>87</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,10 +2263,10 @@
         <v>88</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,8 +2282,8 @@
       <c r="D91" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>26</v>
+      <c r="E91" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +2297,10 @@
         <v>90</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,10 +2314,10 @@
         <v>91</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +2331,10 @@
         <v>92</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,10 +2348,10 @@
         <v>93</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +2365,7 @@
         <v>94</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>29</v>
@@ -1966,7 +2382,7 @@
         <v>95</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>29</v>
@@ -1983,7 +2399,7 @@
         <v>96</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>29</v>
@@ -2000,7 +2416,7 @@
         <v>97</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>29</v>
@@ -2017,10 +2433,10 @@
         <v>98</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,8 +2452,8 @@
       <c r="D101" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>26</v>
+      <c r="E101" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,8 +2469,8 @@
       <c r="D102" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>26</v>
+      <c r="E102" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,8 +2486,8 @@
       <c r="D103" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>26</v>
+      <c r="E103" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,10 +2501,10 @@
         <v>102</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2518,10 @@
         <v>103</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,10 +2535,10 @@
         <v>104</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2569,10 @@
         <v>106</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2586,10 @@
         <v>107</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,10 +2603,10 @@
         <v>108</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,10 +2620,10 @@
         <v>109</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,10 +2637,10 @@
         <v>110</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,10 +2654,10 @@
         <v>111</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,10 +2671,10 @@
         <v>112</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,10 +2688,10 @@
         <v>113</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,10 +2705,10 @@
         <v>114</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,8 +2724,8 @@
       <c r="D117" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>26</v>
+      <c r="E117" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,8 +2741,8 @@
       <c r="D118" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>26</v>
+      <c r="E118" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,8 +2758,8 @@
       <c r="D119" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>26</v>
+      <c r="E119" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2773,10 @@
         <v>118</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,10 +2790,10 @@
         <v>119</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +2807,10 @@
         <v>120</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,8 +2826,8 @@
       <c r="D123" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>26</v>
+      <c r="E123" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,10 +2841,10 @@
         <v>122</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,10 +2858,10 @@
         <v>123</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,10 +2875,10 @@
         <v>124</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,10 +2892,10 @@
         <v>125</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2909,10 @@
         <v>126</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,10 +2926,10 @@
         <v>127</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,10 +2943,10 @@
         <v>128</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +2960,10 @@
         <v>129</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,10 +2977,10 @@
         <v>130</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,11 +2996,14 @@
       <c r="D133" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>26</v>
+      <c r="E133" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I18:K18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/sekwencje.xlsx
+++ b/sekwencje.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="92">
   <si>
     <t xml:space="preserve">l.p.</t>
   </si>
@@ -37,33 +37,42 @@
     <t xml:space="preserve">sekwencja</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_3_15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Taran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latarnie morskie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Jastarnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kaszyca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Hel</t>
+  </si>
+  <si>
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">#Hel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latarnie morskie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Jastarnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Kaszyca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">#Gdansk</t>
   </si>
   <si>
@@ -73,285 +82,220 @@
     <t xml:space="preserve">#Krynica</t>
   </si>
   <si>
+    <t xml:space="preserve">LFI_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Obzornyy</t>
+  </si>
+  <si>
     <t xml:space="preserve">#Shchukinskiy</t>
   </si>
   <si>
+    <t xml:space="preserve">#Rozewie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_2_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_9_15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEKWENCJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_12s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEKWENCJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_6_LFI_15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,700,300,700,300,700,300,700,300,700,300,700,2000,7000,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_2,5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_4s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q_9_16s</t>
   </si>
   <si>
-    <t xml:space="preserve">#Obzornyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Taran</t>
+    <t xml:space="preserve">[300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,7700,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupa szybkich 9 sygnałów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFI_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,6700,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_3_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,700,300,700,300,7700,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,1000,300,1000,300,7100,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3_9s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,1000,300,1000,300,6100,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[900,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[800,3200,,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFI_2_12s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[400,600,400,3600,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo_A_6s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[300,600,1000,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo_A_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,500,1500,7500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo_A_20s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1000,1000,3000,15000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFI_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3000,7000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1800,3200,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[400,600,400,10600,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
   </si>
   <si>
     <t xml:space="preserve">Iso_2s</t>
   </si>
   <si>
-    <t xml:space="preserve">#Rozewie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEKWENCJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEKWENCJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q_6_LFI_15s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[300,700,300,700,300,700,300,700,300,700,300,700,2000,7000,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[300,700,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,7700,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupa szybkich 9 sygnałów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q_9_15s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[300,700,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300,700,300,700,300,700,300,700,300,700,300,700,300,700,300,6700,0]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Q_3_10s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[300,700,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300,700,300,7700,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-    </r>
+    <t xml:space="preserve">[1000,1000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2500,2500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iso_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3000,1500,3000,1500,3000,3000,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2500,1500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oc_10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciągłe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[7000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Światło ciągłe kierunkowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak światła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">FI_3_9s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[300,1000,300,1000,300,6100,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[900,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_2,5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_4s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[800,3200,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI_2_5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[400,600,400,3600,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo_A_6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[300,600,1000,4100,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo_A_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,500,1500,7500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFI_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3000,7000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFI_6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1000,1000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iso_5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2500,2500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iso_4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2000,2000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iso_10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2500,1500,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_5s</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[3000,2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[6000,4000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc_12s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7000,5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[5000,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciągłe</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Światło ciągłe kierunkowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brak światła</t>
+    <t xml:space="preserve">Orange</t>
   </si>
 </sst>
 </file>
@@ -361,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -389,11 +333,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,35 +411,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D137" activeCellId="0" sqref="D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="71.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,13 +466,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,13 +489,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
@@ -570,11 +520,17 @@
       <c r="E4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,13 +547,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>5</v>
@@ -616,11 +575,17 @@
       <c r="E6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>5</v>
@@ -639,11 +604,17 @@
       <c r="E7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>40</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>5</v>
@@ -662,11 +633,17 @@
       <c r="E8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>48</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>5</v>
@@ -685,8 +662,14 @@
       <c r="E9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>56</v>
+      </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>5</v>
@@ -705,8 +688,14 @@
       <c r="E10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>64</v>
+      </c>
       <c r="J10" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,16 +706,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>72</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,16 +732,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,16 +758,22 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>88</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,16 +784,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>96</v>
+      </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,13 +810,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,13 +833,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,7 +862,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +882,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>128</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -876,16 +907,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,16 +953,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="J21" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,19 +976,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,13 +1005,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,19 +1022,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="I24" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,13 +1048,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,10 +1071,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,19 +1094,22 @@
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,19 +1120,22 @@
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,16 +1149,16 @@
         <v>27</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,19 +1215,22 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>12</v>
+      <c r="E32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,19 +1241,22 @@
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
+      <c r="E33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,8 +1272,11 @@
       <c r="D34" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
+      <c r="E34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,19 +1287,22 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,19 +1313,26 @@
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>12</v>
+      <c r="E36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">12000-1400</f>
+        <v>10600</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,7 +1349,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,13 +1372,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,13 +1389,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,10 +1403,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,16 +1426,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,16 +1449,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,16 +1472,16 @@
         <v>41</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,13 +1498,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,13 +1509,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,13 +1529,22 @@
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,13 +1555,22 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>14</v>
+      <c r="F47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,13 +1587,13 @@
         <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,16 +1607,16 @@
         <v>47</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,19 +1627,16 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,13 +1653,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1664,22 @@
         <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,13 +1690,22 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,10 +1719,16 @@
         <v>52</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,19 +1742,19 @@
         <v>53</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,19 +1768,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,19 +1794,13 @@
         <v>55</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,10 +1814,16 @@
         <v>56</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,10 +1837,16 @@
         <v>57</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +1863,13 @@
         <v>5</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,13 +1931,16 @@
         <v>1</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1954,10 @@
         <v>63</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +1968,16 @@
         <v>1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,13 +1988,16 @@
         <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,10 +2011,10 @@
         <v>66</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,13 +2025,16 @@
         <v>1</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,13 +2045,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,13 +2065,16 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,13 +2085,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,13 +2105,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,10 +2128,13 @@
         <v>72</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,13 +2145,16 @@
         <v>1</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,13 +2165,16 @@
         <v>1</v>
       </c>
       <c r="C76" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>29</v>
+      <c r="F76" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,10 +2188,13 @@
         <v>75</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +2211,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2231,10 @@
         <v>5</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2251,10 @@
         <v>5</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,7 +2271,10 @@
         <v>5</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,13 +2285,16 @@
         <v>1</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,7 +2311,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,13 +2325,16 @@
         <v>1</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,13 +2345,16 @@
         <v>1</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,10 +2368,10 @@
         <v>84</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,13 +2382,16 @@
         <v>1</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,13 +2402,16 @@
         <v>1</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,13 +2422,16 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,7 +2448,10 @@
         <v>5</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,7 +2468,10 @@
         <v>5</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,13 +2482,16 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,13 +2502,16 @@
         <v>1</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,13 +2522,16 @@
         <v>1</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,10 +2562,10 @@
         <v>94</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,10 +2579,10 @@
         <v>95</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2596,13 @@
         <v>96</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,10 +2616,13 @@
         <v>97</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2639,10 @@
         <v>5</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2659,10 @@
         <v>5</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,7 +2679,10 @@
         <v>5</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,7 +2699,10 @@
         <v>5</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2719,10 @@
         <v>5</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2739,10 @@
         <v>5</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2759,10 @@
         <v>5</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,7 +2779,10 @@
         <v>5</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,10 +2813,10 @@
         <v>107</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +2830,10 @@
         <v>108</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,10 +2847,10 @@
         <v>109</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,10 +2864,10 @@
         <v>110</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,10 +2881,10 @@
         <v>111</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,10 +2898,10 @@
         <v>112</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,10 +2915,10 @@
         <v>113</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,10 +2932,10 @@
         <v>114</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2966,10 @@
         <v>116</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,10 +2983,10 @@
         <v>117</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,10 +3000,10 @@
         <v>118</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,10 +3017,10 @@
         <v>119</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +3034,10 @@
         <v>120</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,10 +3051,13 @@
         <v>121</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,10 +3071,13 @@
         <v>122</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,10 +3091,13 @@
         <v>123</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +3111,13 @@
         <v>124</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,10 +3131,13 @@
         <v>125</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +3154,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +3171,7 @@
         <v>13</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,10 +3185,10 @@
         <v>128</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +3205,10 @@
         <v>11</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,10 +3222,10 @@
         <v>130</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3008,8 +3253,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regularna"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regularna"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>